--- a/prioritization.xlsx
+++ b/prioritization.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markhendricks/Documents/Teaching/Teaching_FINM/DRW_Markets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markhendricks/Projects/FINM/drw-markets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DE9ED9-4496-AD44-9BAD-D97BB96B6F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E46FE1-0583-4D4D-A719-70FF3A6BC0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{3016E9CF-85FB-8A40-AC5E-66605BFDF2EA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>Vital</t>
   </si>
@@ -167,6 +167,21 @@
   </si>
   <si>
     <t>Calculating PCA components</t>
+  </si>
+  <si>
+    <t>Fed Funds rate</t>
+  </si>
+  <si>
+    <t>Open market operations, interest on reserves</t>
+  </si>
+  <si>
+    <t>Extracting the real yield curve.</t>
+  </si>
+  <si>
+    <t>Measuring inflation</t>
+  </si>
+  <si>
+    <t>Market expectation of inflation</t>
   </si>
 </sst>
 </file>
@@ -602,11 +617,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9B22E9-19BB-9B47-B0F0-FD0EBBD79824}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.25"/>
@@ -671,6 +686,9 @@
       <c r="F3" t="s">
         <v>31</v>
       </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -685,6 +703,9 @@
       <c r="F4" t="s">
         <v>33</v>
       </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -696,6 +717,9 @@
       <c r="F5" t="s">
         <v>32</v>
       </c>
+      <c r="H5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -719,6 +743,9 @@
       <c r="F9" t="s">
         <v>30</v>
       </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -763,6 +790,9 @@
       </c>
       <c r="F15" t="s">
         <v>34</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">

--- a/prioritization.xlsx
+++ b/prioritization.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markhendricks/Projects/FINM/drw-markets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E46FE1-0583-4D4D-A719-70FF3A6BC0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7330B8FD-3387-0F4F-952D-E1AE14108E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{3016E9CF-85FB-8A40-AC5E-66605BFDF2EA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>Vital</t>
   </si>
@@ -175,20 +175,29 @@
     <t>Open market operations, interest on reserves</t>
   </si>
   <si>
-    <t>Extracting the real yield curve.</t>
-  </si>
-  <si>
     <t>Measuring inflation</t>
   </si>
   <si>
     <t>Market expectation of inflation</t>
+  </si>
+  <si>
+    <t>The real yield curve</t>
+  </si>
+  <si>
+    <t>Inflation over time</t>
+  </si>
+  <si>
+    <t>Extract the real yield curve</t>
+  </si>
+  <si>
+    <t>Linear regression with serially correlated series</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -215,6 +224,29 @@
     <font>
       <sz val="15"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -264,35 +296,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -618,66 +653,68 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="52.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="14" customWidth="1"/>
     <col min="8" max="8" width="50" customWidth="1"/>
-    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="14"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="13"/>
+      <c r="G2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="14">
         <v>2.2999999999999998</v>
       </c>
       <c r="D3" t="s">
@@ -694,7 +731,7 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
@@ -704,7 +741,7 @@
         <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -718,26 +755,29 @@
         <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="14">
         <v>3.2</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="14">
         <v>1</v>
       </c>
       <c r="F9" t="s">
@@ -751,7 +791,7 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="14">
         <v>1</v>
       </c>
       <c r="D10" t="s">
@@ -759,6 +799,9 @@
       </c>
       <c r="F10" t="s">
         <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -768,72 +811,81 @@
       <c r="F11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="H11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="I14" s="16"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="14">
         <v>2.4</v>
       </c>
       <c r="D15" t="s">
         <v>19</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="14">
         <v>2</v>
       </c>
       <c r="F15" t="s">
         <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="14">
         <v>3</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="14">
         <v>2.5</v>
       </c>
       <c r="F16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>21</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="14">
         <v>3</v>
       </c>
       <c r="F17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+    <row r="20" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="17"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="14">
         <v>2.2999999999999998</v>
       </c>
       <c r="D21" t="s">
@@ -842,8 +894,11 @@
       <c r="F21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>12</v>
       </c>
@@ -854,17 +909,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="14">
         <v>3</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="14">
         <v>4</v>
       </c>
       <c r="F23" t="s">

--- a/prioritization.xlsx
+++ b/prioritization.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markhendricks/Projects/FINM/drw-markets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7330B8FD-3387-0F4F-952D-E1AE14108E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FEF005-8EC2-D947-A714-371514E18BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{3016E9CF-85FB-8A40-AC5E-66605BFDF2EA}"/>
+    <workbookView xWindow="54400" yWindow="-10300" windowWidth="25600" windowHeight="28300" activeTab="1" xr2:uid="{3016E9CF-85FB-8A40-AC5E-66605BFDF2EA}"/>
   </bookViews>
   <sheets>
     <sheet name="A. Fixed Income" sheetId="1" r:id="rId1"/>
+    <sheet name="B. Crncy, Cmdty, Eqty" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
   <si>
     <t>Vital</t>
   </si>
@@ -191,6 +192,117 @@
   </si>
   <si>
     <t>Linear regression with serially correlated series</t>
+  </si>
+  <si>
+    <t>1.2, 1.4</t>
+  </si>
+  <si>
+    <t>B.1</t>
+  </si>
+  <si>
+    <t>B.2</t>
+  </si>
+  <si>
+    <t>B.3</t>
+  </si>
+  <si>
+    <t>B.4</t>
+  </si>
+  <si>
+    <t>B.5</t>
+  </si>
+  <si>
+    <t>How FX trades</t>
+  </si>
+  <si>
+    <t>Covered Interest Parity</t>
+  </si>
+  <si>
+    <t>Building the carry trade</t>
+  </si>
+  <si>
+    <t>Expectations hypothesis</t>
+  </si>
+  <si>
+    <t>Carry</t>
+  </si>
+  <si>
+    <t>FX returns</t>
+  </si>
+  <si>
+    <t>Formulas for FX pricing and returns</t>
+  </si>
+  <si>
+    <t>Predictability of FX</t>
+  </si>
+  <si>
+    <t>Mechanics of futures contracts</t>
+  </si>
+  <si>
+    <t>Futures (exchanges) vs Forwards (OTC)</t>
+  </si>
+  <si>
+    <t>Contango and backwardation</t>
+  </si>
+  <si>
+    <t>Margin and leverage</t>
+  </si>
+  <si>
+    <t>Pricing of futures</t>
+  </si>
+  <si>
+    <t>Stack and roll</t>
+  </si>
+  <si>
+    <t>Indexes and ETFs</t>
+  </si>
+  <si>
+    <t>Calculating returns</t>
+  </si>
+  <si>
+    <t>Crypto basics</t>
+  </si>
+  <si>
+    <t>Futures chain</t>
+  </si>
+  <si>
+    <t>Conventions for bond and rate futures</t>
+  </si>
+  <si>
+    <t>Single-name stocks</t>
+  </si>
+  <si>
+    <t>ETF arbitrage</t>
+  </si>
+  <si>
+    <t>Levered ETFs</t>
+  </si>
+  <si>
+    <t>Factor styles and smart beta</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Replication and betas</t>
+  </si>
+  <si>
+    <t>Option contracts and usage</t>
+  </si>
+  <si>
+    <t>Put-call parity</t>
+  </si>
+  <si>
+    <t>The Greeks</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Black-Scholes</t>
+  </si>
+  <si>
+    <t>Implied volatility</t>
   </si>
 </sst>
 </file>
@@ -652,11 +764,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9B22E9-19BB-9B47-B0F0-FD0EBBD79824}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+    <sheetView zoomScale="108" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.25"/>
@@ -740,6 +852,9 @@
       <c r="F4" t="s">
         <v>33</v>
       </c>
+      <c r="G4" s="14">
+        <v>1.3</v>
+      </c>
       <c r="H4" t="s">
         <v>46</v>
       </c>
@@ -783,6 +898,9 @@
       <c r="F9" t="s">
         <v>30</v>
       </c>
+      <c r="G9" s="14">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="H9" t="s">
         <v>45</v>
       </c>
@@ -799,6 +917,9 @@
       </c>
       <c r="F10" t="s">
         <v>38</v>
+      </c>
+      <c r="G10" s="14">
+        <v>2.1</v>
       </c>
       <c r="H10" t="s">
         <v>48</v>
@@ -860,6 +981,9 @@
       <c r="F16" t="s">
         <v>36</v>
       </c>
+      <c r="G16" s="14" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
@@ -894,8 +1018,11 @@
       <c r="F21" t="s">
         <v>35</v>
       </c>
+      <c r="G21" s="14">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="H21" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -908,6 +1035,9 @@
       <c r="F22" t="s">
         <v>39</v>
       </c>
+      <c r="H22" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
@@ -924,6 +1054,208 @@
       </c>
       <c r="F23" t="s">
         <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADD10FF-0048-C641-A0FC-F166B5844DD4}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="50" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="50" customWidth="1"/>
+    <col min="11" max="11" width="14.5" style="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="13"/>
+      <c r="G2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="K2" s="18"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="K14" s="17"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/prioritization.xlsx
+++ b/prioritization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markhendricks/Projects/FINM/drw-markets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FEF005-8EC2-D947-A714-371514E18BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76718335-F8AA-804A-B17D-1D21BC41CAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54400" yWindow="-10300" windowWidth="25600" windowHeight="28300" activeTab="1" xr2:uid="{3016E9CF-85FB-8A40-AC5E-66605BFDF2EA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{3016E9CF-85FB-8A40-AC5E-66605BFDF2EA}"/>
   </bookViews>
   <sheets>
     <sheet name="A. Fixed Income" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="90">
   <si>
     <t>Vital</t>
   </si>
@@ -303,6 +303,9 @@
   </si>
   <si>
     <t>Implied volatility</t>
+  </si>
+  <si>
+    <t>B1.1</t>
   </si>
 </sst>
 </file>
@@ -768,7 +771,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.25"/>
@@ -858,6 +861,9 @@
       <c r="H4" t="s">
         <v>46</v>
       </c>
+      <c r="I4" s="14" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -871,6 +877,9 @@
       </c>
       <c r="H5" t="s">
         <v>47</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -934,6 +943,9 @@
       </c>
       <c r="H11" t="s">
         <v>49</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1150,6 +1162,9 @@
       <c r="B4" t="s">
         <v>63</v>
       </c>
+      <c r="C4" s="14">
+        <v>2</v>
+      </c>
       <c r="D4" t="s">
         <v>67</v>
       </c>
@@ -1205,6 +1220,9 @@
       <c r="D10" t="s">
         <v>75</v>
       </c>
+      <c r="E10" s="14">
+        <v>1</v>
+      </c>
       <c r="F10" t="s">
         <v>80</v>
       </c>
@@ -1218,6 +1236,9 @@
       </c>
       <c r="D11" t="s">
         <v>69</v>
+      </c>
+      <c r="E11" s="14">
+        <v>2</v>
       </c>
       <c r="F11" t="s">
         <v>78</v>
@@ -1237,6 +1258,9 @@
       <c r="B15" t="s">
         <v>64</v>
       </c>
+      <c r="C15" s="14">
+        <v>2</v>
+      </c>
       <c r="D15" t="s">
         <v>70</v>
       </c>
@@ -1253,6 +1277,9 @@
       </c>
       <c r="D16" t="s">
         <v>71</v>
+      </c>
+      <c r="E16" s="14">
+        <v>1</v>
       </c>
       <c r="F16" t="s">
         <v>82</v>

--- a/prioritization.xlsx
+++ b/prioritization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markhendricks/Projects/FINM/drw-markets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76718335-F8AA-804A-B17D-1D21BC41CAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BC7474-605C-DD46-98BA-820EEB89950C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{3016E9CF-85FB-8A40-AC5E-66605BFDF2EA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="91">
   <si>
     <t>Vital</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>B1.1</t>
+  </si>
+  <si>
+    <t>Factor structure of equities</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +1078,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADD10FF-0048-C641-A0FC-F166B5844DD4}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1171,6 +1174,9 @@
       <c r="F4" t="s">
         <v>73</v>
       </c>
+      <c r="G4" s="14">
+        <v>1</v>
+      </c>
       <c r="H4" t="s">
         <v>84</v>
       </c>
@@ -1184,6 +1190,9 @@
       </c>
       <c r="F5" t="s">
         <v>81</v>
+      </c>
+      <c r="G5" s="14">
+        <v>2</v>
       </c>
       <c r="H5" t="s">
         <v>88</v>
@@ -1285,6 +1294,14 @@
         <v>82</v>
       </c>
     </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="14">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/prioritization.xlsx
+++ b/prioritization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markhendricks/Projects/FINM/drw-markets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BC7474-605C-DD46-98BA-820EEB89950C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2264DBB7-A36B-D543-A2AD-801E68434A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{3016E9CF-85FB-8A40-AC5E-66605BFDF2EA}"/>
+    <workbookView xWindow="28800" yWindow="-10300" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{3016E9CF-85FB-8A40-AC5E-66605BFDF2EA}"/>
   </bookViews>
   <sheets>
     <sheet name="A. Fixed Income" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="96">
   <si>
     <t>Vital</t>
   </si>
@@ -293,9 +293,6 @@
     <t>Put-call parity</t>
   </si>
   <si>
-    <t>The Greeks</t>
-  </si>
-  <si>
     <t>Delta</t>
   </si>
   <si>
@@ -309,6 +306,24 @@
   </si>
   <si>
     <t>Factor structure of equities</t>
+  </si>
+  <si>
+    <t>Gamma</t>
+  </si>
+  <si>
+    <t>Theta</t>
+  </si>
+  <si>
+    <t>Other Greeks</t>
+  </si>
+  <si>
+    <t>Meaning of Black-Scholes</t>
+  </si>
+  <si>
+    <t>Impact of dividends and American</t>
+  </si>
+  <si>
+    <t>B4.3</t>
   </si>
 </sst>
 </file>
@@ -865,7 +880,7 @@
         <v>46</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -882,7 +897,7 @@
         <v>47</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -948,7 +963,7 @@
         <v>49</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1160,6 +1175,12 @@
       <c r="H3" t="s">
         <v>83</v>
       </c>
+      <c r="I3" s="14">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -1180,6 +1201,12 @@
       <c r="H4" t="s">
         <v>84</v>
       </c>
+      <c r="I4" s="14">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -1194,8 +1221,8 @@
       <c r="G5" s="14">
         <v>2</v>
       </c>
-      <c r="H5" t="s">
-        <v>88</v>
+      <c r="J5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1219,7 +1246,13 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
         <v>86</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1236,7 +1269,13 @@
         <v>80</v>
       </c>
       <c r="H10" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="I10" s="14">
+        <v>3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1276,8 +1315,8 @@
       <c r="F15" t="s">
         <v>79</v>
       </c>
-      <c r="H15" t="s">
-        <v>87</v>
+      <c r="J15" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1296,7 +1335,7 @@
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G17" s="14">
         <v>3</v>
